--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/48_Kinkkale_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/48_Kinkkale_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6E8336-4A8D-4C5A-B6A4-A6F4FACBA12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A2E1480-548D-416F-9AE1-A32C9FDECF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{853FE11E-7707-4231-BDCC-BD563611365F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27AA67F7-210B-4A24-A56A-3595A072D814}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F98101AF-176C-40A6-BFF2-02BF14A101AE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{B8FFAD03-CC9B-412D-983B-5B81D7A2FBD3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F262534E-6863-418C-B1AF-3E110F18BA70}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{DEA343DF-E8EB-4F6E-BB19-C00D50833EFB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{58338113-CF8E-4CA7-8431-E13AAF18DBC8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{D2A8C377-2C4E-433D-8691-276A57B8DCE9}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{E3E4BDE6-F04A-4C29-AC6D-790DD25FE450}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{A0C887C2-038E-4796-A17D-9E3A6CE25E88}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC151300-EE2F-4A57-A173-C02F8558640A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D53A65-BC77-48A9-A789-05E735AAB009}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2439,18 +2439,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B3AC68EC-77BE-4CEE-BCFD-10CE03185612}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4AB83EAC-4357-4BCB-83D5-D6F04AFE51FB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D014C94D-6ADC-4B21-92CD-FA308BE2263D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8E7AF9A1-6A31-4EB1-9FA0-8511A0F8A6E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{19B0FE17-D845-4D81-84CD-203333807793}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A130A4A-5EA6-49E8-B99B-69FD6B62DAF8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CF10AB60-584F-41E0-BB67-5700BCC641C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CC124AF0-0400-4DD6-A5E4-33E59C597FCF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BEE6F202-CB9C-417E-B79D-F418C430A8A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DFDE9479-A30E-403D-A5CB-16647B77BBAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2EC5F682-33AB-4689-AC95-2D4CD40AE794}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67A90C0F-2AF8-4B4F-9F78-B54622088BD5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2DBF4CE0-4C2A-4E40-A0A2-DD4E5D1048D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FDDB6C48-F87C-4AC4-AF98-3CE6E72CC28A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{361F5962-0072-4E65-8C8F-C96C58A12826}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{124E954B-9089-4206-BCB6-92A6FADC7C8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{11D8A676-4B62-4A6C-B6A0-CE2FD99680F0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3B337A43-6119-4C1F-9DB7-C8F02FF59C3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{347D1A3C-FDD1-4E92-A48D-6572592ECA24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{087374C6-6CA7-4196-880C-986C0707E155}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6B1595AC-FCFA-44C0-B26F-F9A350E96857}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29DEF51E-6650-4FF3-8E5E-59EE60012E03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CC73C28E-CD69-449A-AB7E-A75B2C403C7D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{491513FD-4CE6-4054-B93D-1BDC49D5F165}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2463,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500B037-3B01-4879-8B7F-02791CD9579E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D363-9F5B-4A21-B7A5-4E6026742F07}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3636,18 +3636,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DCC96FFE-1DEF-470D-9AC7-03A05BF8AEDF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9A28E997-169B-4A9B-8E5A-1EB35EA0A1EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9CE88A91-976C-4E72-BC38-7196827A0375}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CA8CF65A-998D-4F72-BDF5-A21BAE790CC5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F865229F-4A17-4E8F-B5D1-8F09B64E319A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A66D6331-9D99-49AE-B13E-8929D6C5A675}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DDFC8D3A-CDC6-4CFA-A2FF-1AA88574FD29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9097A9FC-DFF7-464D-AA45-ED5C9FFCFC98}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4C83C23C-9B8D-44FE-9B54-A1CEC10A5A18}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7649AE17-B56E-47DE-9C7C-9B7F9FE752F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{066D8D61-125B-4C42-B6E9-4DC95E0FC0F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A269E75B-D034-457B-90E5-0FD440F201E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E67A802-A743-42EE-BBE3-B45ADE96CA68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0F98F344-5D30-4321-B878-DA6C9D4B0BFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0E1DFF18-6D32-459C-9A98-B93C0AAA5DD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65379C9D-AD07-48E9-A8EF-DA6A99013028}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8E44C7B6-BE4A-4D22-BFDF-10C008063641}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{481214D9-793A-45FD-B3E8-9368AB1B9321}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{091C8049-B710-4C7A-9A88-8007B5CD7D48}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EC32EFD8-C775-49BC-AEF4-32446D78234D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{110C7E0F-198F-456B-8066-E5EAE1351620}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E093E233-408A-4F3F-89DD-A53D515F0F01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C04061D3-EB68-4B97-81ED-C54611498690}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6FA4EA51-027F-4679-BE3C-751CA87A1926}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3660,7 +3660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F7BC2C-7D74-4D5A-AF0A-DE906D3FA27A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096BFE63-5671-45C5-B424-2104EDB1AF8B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4833,18 +4833,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65D867B8-E867-43BE-B62C-6267121BB830}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68E33583-B708-44EB-BA4B-ED60FDB49AB8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BC311620-70EE-433A-9D8B-6A01321B3CFB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8C4434E7-E058-48B6-B21F-12C803F895A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E215683F-AC0C-4EA5-B05A-B8474EE470A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{111A93C3-1867-4ED7-BE45-7F95213B876C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D8A31041-20F3-49C8-9D93-187DD2BC8FD4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3961BDEC-C396-45A3-9D1A-8D4FA68AB1CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{47A3EB6E-06D8-4F7D-9A6A-03E6D17776CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4C7F1899-0CE6-40DE-9B60-392C3D808CAB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BDA40B93-8181-4C3E-A809-AA643CC588C0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{585789F2-1FE6-4533-8E39-5303C3700F1E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D5F36E3E-9A5F-4F31-BB7D-1DB1027E11D9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{05A7BDD7-0AC8-4167-BC9A-7C44BC722F2F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BB6B33F8-5838-412A-BC4E-144EC2A0C511}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79FAFAF2-FAE9-406C-905A-9C866D1975F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0A8081E6-245D-4111-B22A-1744AC83C0DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28EA4764-8806-4BBE-8623-AE0BEC7AE216}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A38993C-8BCD-4E98-8D2B-7278B734280D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D7899DF5-08B1-4328-8F26-A62BF803071F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ED909B1E-572F-4B67-8334-C44A55E8607D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D6952F62-E6BC-42D0-8823-13BEA2DFC448}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5391F759-CE5B-49C0-9E5C-45B9D6A111E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{07E7D4FE-73B6-4AE3-9914-130CC3DE1B03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4857,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BD9574-7374-48BB-B853-E1B56FBC6EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB5BA25-45C7-46C9-8CB6-3D616FA8A24D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6028,18 +6028,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8DCC0462-9C66-4078-8FCB-E0F846A97412}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AB11980F-5D16-45BF-B240-BE32A33E5B40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F3D9DD9E-D859-43A4-9F28-78888BDD6CC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3E5B57F0-41E3-439E-A9C5-3F3C41817570}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7D41C120-57C8-411F-9493-E2AD8650A6C1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3567A6E3-9DDD-411B-8DAB-2BA66AA30737}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{410CDBE4-1F51-4232-B8B2-E10CCFEF79DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8B747C77-1349-41B6-BA5C-C9BEFED842FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{54793CE7-79CA-483D-BCE5-F397CD39D723}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{934436F8-F391-4B13-8418-9E2E6BBBA9AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{972EC189-7617-4B4D-A75A-C580B7C6E808}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{981D460D-7B58-44E2-A0D9-BBC994FB5E00}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1910A5B1-FB68-458D-A25B-C5B1ED0943A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D8DEF0C-FFB9-4477-A7EC-DBC7999A870E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{889DC56E-9C01-406B-BFC5-5D1FC7A0070B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EE057E43-6411-4B3D-BEED-A13DB55E9009}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5EEF34F8-27E2-48CA-9D8A-F2134C7CB34C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{70BBC716-7657-405B-B44C-C30A86DA388E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DB952A28-8F89-4D05-8F24-23058A090777}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{782B861C-A6E7-419F-AB8A-4038A5EDB2D7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5F2B2F4C-BBBD-44D4-829A-64DCE2CDF28F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{04CF6048-5D02-493B-9EF8-0EC7388AC9A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{09924190-C289-4534-B15F-D5EF5D1852E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{56497AEF-D470-49DF-9337-CF950BAFF2EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6052,7 +6052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B490E43D-0DBD-437E-8B45-455B18F882DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C08219-01CD-40F9-B627-2C4DF229E9D4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7259,18 +7259,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D700AE01-C377-4DAD-AB66-02A87D9D1EB0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B445ABEB-8E2A-4E6C-BA61-D67596024A91}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6EA33817-0593-4540-9701-C27D2C2AEF2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{13D8EFA6-A4F0-4619-9E4A-2F76746C3DD9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D6D5F82A-D254-4873-9273-CD7AA9222C06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0E413CA7-2593-49B8-AB41-8896F30A9368}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F046A90-F7C6-417E-BB02-995CC91BB829}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4FA8F3C0-65BB-4FD3-8F16-87C654156AB3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A136732D-52D7-43B3-8757-13A5663CEC41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1DB64C89-5D69-4E33-9310-B89D89D566FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EDBE1BA2-9802-4719-9328-9B468CA26004}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D7630E6-C4EC-46D6-B29B-93A9CFEFCE75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E4029FC0-92E0-4023-8372-5BE059687D51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6B16BB79-6911-4D1A-B105-DF6951236C86}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E8567874-866B-493E-864D-FEE8F2CB5A9A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{547F0198-F697-4FF6-ACB8-B67C3AD73344}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{43018840-382E-42FB-B54B-2ACA54E3D90E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2FB3ED2B-4A63-455C-A476-32A3734749FF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BD39D982-A8DF-4FA9-8C91-72E3245B4D9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{60482538-950D-4118-BE9E-A88E7D2DB4B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CE693F95-7D0E-492D-B129-525D3017AC90}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0FC5892C-1FDF-4039-A16E-579C3A006E01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8FA51EE-3FEB-402A-AEE8-23028AC59F6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A7B523D-5845-4AD7-918A-ED042EAB20AC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7283,7 +7283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DC5C1E-204D-4C5C-9CFD-4C326862AA4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6026047F-3B12-4F01-83C5-F84336958C60}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8484,18 +8484,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F61BBB61-C9D6-48E9-BAB6-DC1CE8F46851}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D591F970-D98F-4160-8547-20833AE41549}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{443E7FAA-BDB9-48B3-9DAC-56757EA1EB5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B16364F0-F94C-498E-A844-4F1DB2CD6639}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A71B3AB-97BC-4A9D-BDC0-B1976645DC5F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1F1C0B49-0463-43CF-A09D-93F83AE5F2E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7BDFB42C-288F-4C52-BF71-425F6EF90E1D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D2F85F7E-3E16-43ED-8CB7-67BCF8153331}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{471A4113-B12F-47AB-85EC-C5A5757FFD01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{53878B52-D354-4D93-A1A9-341F959CB622}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0F00C90C-543F-4D08-BC8B-95E8CBA308AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{89CE0241-E693-4CBB-BFF7-E6629250A951}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{60AC587F-6AAD-4C28-B20A-4EC06D08EFF7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1E9BCF3C-1DBA-4477-82E9-01C2EFAF7960}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{76E1A3BA-37CB-4536-A279-ADF393240FA6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6745911E-3A5E-47F4-96E6-85690EEDA809}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A035C9E-7D28-45CB-96F5-CF15408F9CE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{92095DAB-B2DC-4C59-A8D9-A7517251486C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0A90ECE9-81A9-495F-9FE2-472F1104492E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{95BECEA3-5205-45C8-ABAD-D7C0E7104870}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{49AA1364-DDEC-4C15-956C-34004FB1901D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1033ECBC-464F-4E98-892E-C3B1F3E2A4DC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74CA72BF-BBCE-4202-8F23-AF8E6B2BA3B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E84CF895-241E-4419-94A0-9B72BEBEA30C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8508,7 +8508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E9F2F3-D1C4-49CF-902D-4EDE58B6E065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343B3973-EF54-4940-8D83-567E77FC3813}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9703,18 +9703,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{72C1821F-C46A-4428-A082-6D2C5F42C2ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B5AF6F55-1A25-4A6B-82BD-2535AF1C1704}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0179805-839D-41D2-9852-AE1B580623B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{086C947E-B88F-4B6A-9A4C-D62BDECCA642}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CA712BB4-C986-4CF8-972A-C23E2F5ACB27}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2E86A13B-F5A2-481C-B703-94225FE8A74E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{096FC6F8-5DA4-4EA9-932C-45F8EC29E94F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CAF12DC9-B926-456F-98EE-7C5FF56AC3D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2577EABA-299F-4452-A60E-F666FF1B10A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C887B73C-79A0-41E0-8FE5-A0DB83896795}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3C44E769-C1F7-4F49-88B8-63D1293D0C37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{883C3E34-0B4B-40D0-8864-2DDC0B8DA2AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6B806E02-8B15-435B-BC5E-D18110A87859}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D0B52DDC-EF04-4688-9776-F29ED1944D12}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{80E89DDB-0CB8-4108-AFB6-8D8E44CEC6F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FABD6C9D-926C-4B98-8D73-9CE143A5748E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{14923792-FFF0-42D1-948C-AAFC0CD39681}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A4FCA4EE-10CB-4B73-BD56-BE7246F9358E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A282CC5C-B151-4C6F-BD15-63537CFEB43E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C66A00EB-9D60-4C1E-BB50-13ADCE320E8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CF2E779B-DD2A-4FCB-B9A1-83F7017FEFEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CDD13D82-F7D0-429C-B85A-35D595765234}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{849FA1D6-C4B1-4EF1-AC62-BF39F1AC716B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B519A076-A1A2-46D7-9247-F0CAE605A181}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9727,7 +9727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDCF149-8161-4AB7-881A-7A3971F9A0F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4894C621-7960-471A-8DA3-8F946ED6AF05}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10916,18 +10916,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F0C700DC-4A40-43E9-99E4-26947946EEFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{76E2CC09-8180-49C9-8BE2-6414D8DB5D77}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FE535E5C-2CBB-4D72-A30E-A3D058B4AE4C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FAED12CF-DE84-4868-93F4-51DD46F0B61F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7F645EB3-476B-4B6A-B0A6-675B1E79C167}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A0F86FF9-02B6-45DB-9347-787E596DBE50}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D6B0BA1C-DE3C-4D62-8030-86929A73DAC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{342D5F8F-0E1C-49DD-976D-C32911742AD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{58C1EAFE-78DB-447C-9855-87FAFE47B515}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{482FD05F-D8F7-4DAE-BEE1-52DD855553D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{294AFC53-A522-488F-A764-DCBA611EF418}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E61C460E-C0C8-40BA-AC92-A4F70CEB4213}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A42EAC5D-1CE0-43A2-B128-3D8DAFA9599C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2E0E1240-D696-45CB-9065-F8FC13B5DA1D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E61637B9-9036-4360-8A18-95B183098B61}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{82B544D1-B79B-40A0-99DB-5AE1A14A7848}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{77D41525-BD30-4ADB-80AE-01D4A5E75987}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE7865E7-2329-400B-9056-1A40AEBFF3E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F2869DEB-6B9F-4BCF-9298-E969B4423D2A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D93C4174-4FD1-4476-98C1-8FDE0282D574}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{42B2ADE4-8736-4277-A485-D8BA4E9D1100}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{66C717CB-C5B4-4A13-8718-14EB32FCDDC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2F070A25-85C4-45BF-8959-F59DCB9A679B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67BF684A-7095-4D40-84FA-65DAADAC90DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10940,7 +10940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E46D806-325B-46E2-8C71-5BD8F35FA4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BE708F-0AEA-4750-BB59-FAC60123CBFA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12129,18 +12129,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{72C8FD10-3E8A-4DFE-9941-87D906D6DB43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1225D293-27AE-44F9-9924-FE8B8928B9AC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A98EBBF9-456D-4349-AA5B-6E4996DAEB05}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7D5ADD1E-2D69-41CE-B85E-DE7A586FFE44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4737EAD5-0869-4EC4-AE8A-15230D031789}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{08B3212D-9E5A-4CBB-9559-3522733B197C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F72DE19B-E1A6-4CB1-9FA0-06E9260CF05F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E2DD5EC4-5E22-44F7-AECB-EE99DFCAD032}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7A8F213D-7B8C-4DFD-A670-4CD137B2B787}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6A83EBFF-7FEC-4C1D-B9AB-99B18C0E1FC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{90CB4ADA-0258-4510-ADC1-0F677280F9F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{68952F7B-0E67-47AE-8E5C-B1737654CCE3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F565BE2D-89D3-43A8-A5A6-927F49B3622F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{88027DAA-2212-4509-88B8-886BF9762D4F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A005ACA3-F563-4C23-B661-0EBC6E59FF58}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{89038DCD-F369-449F-911B-41A4D60AF893}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A8A6C742-8727-41B8-9E70-470DC391AF03}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C69CD780-468F-41AD-8B53-F5FA6C62578A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C4960454-2D48-490E-BB23-0F9F47B42A7C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{90EDD4C5-198A-4C38-BDC2-A486C2A25488}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0634ACF5-0214-4052-9FBB-08B450624655}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3E434E60-73C6-49E4-A29C-DEFB461CD321}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{76318E7F-A196-49C9-8FE8-3CB98F627456}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2C792B53-5E47-4A8C-B74E-50B7C8AF2741}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12153,7 +12153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB94E43A-1EEE-489D-8247-F625BC485F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFCDC33-6620-4922-BBA4-2A69B30A9550}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13338,18 +13338,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F343F845-F530-4B84-8254-9ED9A4AC35BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B90540AF-76B7-4F58-A961-F884AE2DA15F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A51D5D4-B3BB-482B-8472-D38EA47862F6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{552EB105-D2BC-4131-AE18-74BA5A507890}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8F1D1615-27E4-4AF4-9424-E1BDDCA99BD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28B71597-CD8F-4646-B3BE-1E7B5AAFED8A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2EEE6D81-F4DA-4F10-B382-2519DF28B9F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F1041B3-A579-4BEA-BA1B-6A80150234E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7536FCFF-00D3-4A03-A944-9ACFD0B5771A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{975EE339-26A1-4A33-9BF2-228B290EB82E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F018B92F-879C-46AE-8D1E-8D0FE2FB74F1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D8EDA6B9-146A-4447-AC3A-577643E82849}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34288620-4D49-43C6-B5C8-C339794B353F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AF0DAFBF-D7BC-468F-9CDA-7B55DA9E9805}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FCD2F720-449F-4A28-843B-DC843C195D9F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{31F1410D-6ADE-485F-B6D5-302CF4F62ABC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B527E067-F6B2-43D2-AFC8-C50297E4AACC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{109059DF-035B-4DFF-B6F2-AE2243D2B628}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{854DD0CF-7790-41D4-9835-5A9ABE3B9B95}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F5BF8DF4-70B4-49FD-BD6B-1C1A658141AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B8482703-A0D1-432C-A4FF-18C568D47D59}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{02A855B4-C67C-4850-A1C2-BF70342B912E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{51F72359-03FC-4039-A4BF-1342CB142962}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{87924745-D087-458F-BBEF-0451CE619036}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13362,7 +13362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44359B33-35B6-4EF0-B54B-2523101E1670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DBDB87-822B-4840-933A-EFF3F4C3BF42}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14543,18 +14543,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0D8628E6-3735-4204-95F2-DBA8017BA47D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{249B4E96-A4E8-4ADC-B8F3-F03EF1E292C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C5909C26-D6C8-42E0-8118-26138C0DA6E3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{83A73E7F-5263-4BE4-923F-9DC1372DAB27}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7FED34CF-2BD7-41C7-B982-4AA7737AEDB1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6AEFC492-9C61-49AA-A014-1A1AC1F4F758}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{195CC050-8692-4432-A1C0-94BA1B7F6233}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56408ADE-3C37-4966-B18B-27C9D954029F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{125AD7C2-3082-4A11-888A-27EC195B2033}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DFAE800E-C226-4311-844F-C97579D677B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EFECA7C0-071A-4EC4-BD15-2DBD5FC8BDDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EE3F088E-4F96-41B7-B5E0-CECF6BE813C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F59EF46C-2622-40F1-9582-1C60EDB9CE9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4FF5A1F4-0849-43C7-8A5C-B7EF2270D450}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1A10F204-2CAD-4033-A767-7E1E77CF6D4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{867B76B7-580F-4CA8-8A8E-458D29A9CFB0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F071894-3F45-4227-ADF8-C1DF9E365201}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{482F8AD4-011B-4F8E-9619-3F06DBB48A56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A5B76A6-0494-4B21-BB53-A1BB26292BAE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5B8495DC-2128-47C4-B446-5C707E98C107}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{18CF0FDC-3996-4D2D-AFD2-E86D08BB14D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D89A831-4EE0-424C-8B6A-E5A3343AB852}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A202808E-4384-4A99-A092-4D73C928C0A2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FD53897F-8D14-47C3-AB2E-E6B01D77F789}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14567,7 +14567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9490906F-74E9-4946-899C-1F131355765C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43952C3-DD6B-4625-91F9-FCB7F02BAF27}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15744,18 +15744,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E80633C4-EF5B-4D47-AEF7-E5772C6E360A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{79E60005-9C54-498C-B68D-5364801D081B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{07E08EDC-B32D-4AD0-87C3-3A3271D4A97E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CC7C969B-1CAD-41D0-924A-F817E209F536}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BE301B59-A68F-4C53-941B-273DE6186EBC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{934DF483-47AD-4B1D-B7C8-030A6F435DC7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C681B1D6-017D-4387-8113-B40CEB781579}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D21A4AC6-0169-4423-AE09-49233F59A0ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6EDD6F5D-F091-46B7-81B3-CF474749EAA5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{173403CB-2678-4557-AEA5-9F5528085039}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{85A4E1C5-9948-4F71-8F2D-6E227FA902F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CF393169-184A-4D9E-92F8-AE4141C654BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BB2848DB-38AA-4138-90F0-2AC4A3CC4370}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1ABC0ECE-4733-46AD-9D88-012B5D6F4441}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6AE09C19-A79C-4275-AF54-1ACA55DFB47A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DFFA0A4C-D260-4417-83C6-5BD932E2F2B9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FF69D525-C226-4756-8999-6DB9596AB43D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4E2E0329-305B-4E90-94FE-483BF0F4CF8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BD20B853-335A-454D-ACE7-567FF6F42342}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A7321CF9-DAB4-4249-AAF4-C176D6AA3730}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FC96F941-13A0-4B41-89F4-36E68247E968}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{10D0D96D-399B-4D91-B3A1-E366A48DB6DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD36B937-E7D9-4A17-8BD8-3E97CC033E3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2B062D94-D328-46C2-BCC6-72453A877021}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
